--- a/public/template/proses_aktivitas.xlsx
+++ b/public/template/proses_aktivitas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafif\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2282C0D-D5A0-412A-A36A-06B9A9641714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78688D26-B1D7-42CF-B7ED-FC1E6321D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0EF3C09A-100C-47FF-B218-0E54547EF85F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">	Sarana dan Prasarana</t>
   </si>
   <si>
-    <t>Proses/Aktivitas</t>
+    <t>Proses Aktivitas</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5124E1A1-CBC0-4918-9C03-81CAEA7DE2F5}" name="Table4" displayName="Table4" ref="A1:A3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A3" xr:uid="{5124E1A1-CBC0-4918-9C03-81CAEA7DE2F5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C5219131-222B-44B7-B58E-9FF723D88603}" name="Proses/Aktivitas" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C5219131-222B-44B7-B58E-9FF723D88603}" name="Proses Aktivitas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,7 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BA8584-E586-4423-A0BD-27810C1C74AE}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/public/template/proses_aktivitas.xlsx
+++ b/public/template/proses_aktivitas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafif\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78688D26-B1D7-42CF-B7ED-FC1E6321D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D61FCF-17E1-4174-B4DA-6452287505FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0EF3C09A-100C-47FF-B218-0E54547EF85F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0EF3C09A-100C-47FF-B218-0E54547EF85F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Pengelolaan SDM Jurusan</t>
+    <t>Proses Aktivitas</t>
   </si>
   <si>
-    <t xml:space="preserve">	Sarana dan Prasarana</t>
-  </si>
-  <si>
-    <t>Proses Aktivitas</t>
+    <t>unit_kerja</t>
   </si>
 </sst>
 </file>
@@ -96,7 +93,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -136,19 +136,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5124E1A1-CBC0-4918-9C03-81CAEA7DE2F5}" name="Table4" displayName="Table4" ref="A1:A3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A3" xr:uid="{5124E1A1-CBC0-4918-9C03-81CAEA7DE2F5}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C5219131-222B-44B7-B58E-9FF723D88603}" name="Proses Aktivitas" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5124E1A1-CBC0-4918-9C03-81CAEA7DE2F5}" name="Table4" displayName="Table4" ref="A1:B3" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B3" xr:uid="{5124E1A1-CBC0-4918-9C03-81CAEA7DE2F5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C5219131-222B-44B7-B58E-9FF723D88603}" name="Proses Aktivitas" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{62964CCC-79C1-403A-8D17-741B147160DB}" name="unit_kerja" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,87 +446,88 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21"/>
     </row>
   </sheetData>
